--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>967943.5201389242</v>
+        <v>1078995.754597094</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9309345061376</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.34634063418613</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.11041309544132</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>138.2379118976255</v>
+        <v>298.1004271545885</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>33.77936158462983</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3055765938514</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>175.1042792040284</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>97.58117330968069</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>78.08506320366504</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.76059872676623</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836072</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.23398543236146</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>21.41202592065131</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>141.8703649047184</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>168.0763970532082</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>67.76542011113162</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>43.62842154964859</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>200.484175643734</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.92521096022239</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>277.7738553281056</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.0422229190258</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.6650918289977</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>55.75000363773665</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.3912205776539</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>79.75985463823433</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>168.8127711940825</v>
       </c>
       <c r="T40" t="n">
-        <v>2.0315900626048</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>109.4302087608547</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>10.1822203599422</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>54.76523371349977</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>27.9162879649354</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>743.4848209837926</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C2" t="n">
-        <v>743.4848209837926</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>743.4848209837926</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>743.4848209837926</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2654.37500956955</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.19752188372</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.19752188372</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.19752188372</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.134634540149</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.134634540149</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.084661047914</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1443.489535627676</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C5" t="n">
-        <v>1443.489535627676</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="D5" t="n">
-        <v>1085.223837020925</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="E5" t="n">
-        <v>1085.223837020925</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="F5" t="n">
-        <v>674.2379322313179</v>
+        <v>355.0545244007569</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1443.489535627676</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1443.489535627676</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>694.0084169492324</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>694.0084169492324</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5912469122717</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5912469122717</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5912469122717</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1534.318342165211</v>
+        <v>999.4901647174279</v>
       </c>
       <c r="C8" t="n">
-        <v>1534.318342165211</v>
+        <v>630.5276477770162</v>
       </c>
       <c r="D8" t="n">
-        <v>1176.05264355846</v>
+        <v>630.5276477770162</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>244.739395178772</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205144</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205144</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1920.918182229333</v>
+        <v>1386.09000478155</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>288.8387344486664</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>288.8387344486664</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>288.8387344486664</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>288.8387344486664</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>501.108524424795</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>501.108524424795</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>501.108524424795</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>501.108524424795</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5075,16 +5075,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>171.4384150621102</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L12" t="n">
-        <v>785.3354848189988</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M12" t="n">
-        <v>1092.65561809896</v>
+        <v>813.8367190106991</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.067196363111</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.6051391270978</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>310.6051391270978</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>310.6051391270978</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6051391270978</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028583</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473451</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262957</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765148</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706279</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706279</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>531.3977182706279</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.6051391270978</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7081686256434</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>385.4732965321074</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M15" t="n">
-        <v>754.9984739765641</v>
+        <v>939.1942790685365</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.8401545872508</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="C16" t="n">
-        <v>713.8401545872508</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>546.4684071116698</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>398.5553135292766</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>398.5553135292766</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>230.3799918490973</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259998</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X16" t="n">
-        <v>785.7936752259998</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="Y16" t="n">
-        <v>785.7936752259998</v>
+        <v>696.5850465240055</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>2066.281124137609</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>731.3351829786183</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1244.537768226073</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1020.752353015579</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1020.752353015579</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.752353015579</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3351829786183</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X19" t="n">
-        <v>731.3351829786183</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.3351829786183</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2500.819361250803</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3114.716431007691</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3452.170464241251</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>3796.691119878869</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4255.500682889111</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4086.564499961204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3936.447860548868</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3936.447860548868</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3789.557913050958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4437.14914771935</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4437.14914771935</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4437.14914771935</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4437.14914771935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4437.14914771935</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5984,40 +5984,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="L24" t="n">
-        <v>836.4717212750119</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="M24" t="n">
-        <v>1604.839867667473</v>
+        <v>3269.187507643263</v>
       </c>
       <c r="N24" t="n">
-        <v>1949.360523305091</v>
+        <v>3375.980772660171</v>
       </c>
       <c r="O24" t="n">
-        <v>2343.167113208264</v>
+        <v>4045.44453396283</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3924.638671546822</v>
+        <v>3800.532462543054</v>
       </c>
       <c r="C25" t="n">
-        <v>3924.638671546822</v>
+        <v>3800.532462543054</v>
       </c>
       <c r="D25" t="n">
-        <v>3924.638671546822</v>
+        <v>3800.532462543054</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546822</v>
+        <v>3800.532462543054</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>3653.642515045144</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W25" t="n">
-        <v>4347.940519017357</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X25" t="n">
-        <v>4145.431250690352</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="Y25" t="n">
-        <v>3924.638671546822</v>
+        <v>3982.180927373294</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>798.7557445928458</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.010242114294</v>
+        <v>1567.123890985307</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.386567099205</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>758.0126656629491</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="C28" t="n">
-        <v>710.6134626728254</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>4580.274921167721</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>4325.590432961834</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609664</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="X28" t="n">
-        <v>758.0126656629491</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.0126656629491</v>
+        <v>4036.173262924874</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2626.17692130864</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>3240.073991065529</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>4008.442137457991</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N30" t="n">
-        <v>4608.816536887612</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O30" t="n">
-        <v>4608.816536887612</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>4791.460014500963</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4204.80807681306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4035.871893885153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929845</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929845</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.517392892884</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>4371.517392892884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>4204.80807681306</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6692,58 +6692,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623457</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>860.1838454192343</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.740464804045</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N33" t="n">
         <v>2112.152043068196</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.5481934947356</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5481934947356</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947356</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>955.1031435655738</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>727.1135926675564</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.3210135240263</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0657286834808</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L36" t="n">
-        <v>877.9627984403694</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="M36" t="n">
-        <v>1185.282931720331</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="N36" t="n">
-        <v>1823.732818421694</v>
+        <v>4163.697075963993</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>4833.160837266652</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.0436439308535</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>527.0436439308535</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1418.350760822312</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1418.350760822312</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1418.350760822312</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>1129.22212203587</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.21084526296</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X37" t="n">
-        <v>847.2212943649431</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.428715221413</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0657286834808</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>877.9627984403694</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1646.330944832831</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1990.851600470449</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2407.921012496628</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1328.398319856809</v>
       </c>
       <c r="T40" t="n">
-        <v>1185.869045860932</v>
+        <v>1104.612904646315</v>
       </c>
       <c r="U40" t="n">
-        <v>896.74040707449</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="V40" t="n">
-        <v>642.0559188686032</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="W40" t="n">
-        <v>642.0559188686032</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X40" t="n">
-        <v>414.0663679705859</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y40" t="n">
-        <v>414.0663679705859</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>3907.324136615209</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>4342.324778859756</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O42" t="n">
-        <v>4591.078192943719</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>534.1020230870769</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="C43" t="n">
-        <v>534.1020230870769</v>
+        <v>505.7823888599185</v>
       </c>
       <c r="D43" t="n">
-        <v>534.1020230870769</v>
+        <v>355.6657494475827</v>
       </c>
       <c r="E43" t="n">
-        <v>534.1020230870769</v>
+        <v>207.7526558651896</v>
       </c>
       <c r="F43" t="n">
-        <v>387.2120755891665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>219.0367539089871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W43" t="n">
-        <v>754.894602230607</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X43" t="n">
-        <v>754.894602230607</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y43" t="n">
-        <v>534.1020230870769</v>
+        <v>674.7185717878253</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7640,37 +7640,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>3114.716431007691</v>
       </c>
       <c r="M45" t="n">
-        <v>854.8783002638692</v>
+        <v>3883.084577400153</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.28987852802</v>
+        <v>4191.390811711633</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>656.1762782006413</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C46" t="n">
-        <v>656.1762782006413</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="D46" t="n">
-        <v>506.0596387883055</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883055</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1359.642896448076</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1359.642896448076</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1104.958408242189</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>1104.958408242189</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>876.9688573441714</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y46" t="n">
-        <v>656.1762782006413</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>212.8124729155957</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>171.4105725732435</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>115.4207320045208</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>164.7421848645415</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>273.2442139046346</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>311.7043020579097</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>138.9185321287703</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>100.660449296165</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.5979947495758</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.5018024468848</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>56.05044507888485</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>118.4466012833828</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>98.72814835224597</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>122.865146913729</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.22547974530315</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.3216101384054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>8.46349707047176</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.54243043306903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.16688835293957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,22 +25126,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>162.8346497143581</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.4407596042834</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>30.20449776555846</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>29.10803878952072</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5159709957844</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>35.99083926207655</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>138.7316080075939</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986323</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.14859465403636</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>193.6312730934538</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327921</v>
@@ -26335,25 +26335,25 @@
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759235</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759209</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
@@ -26442,22 +26442,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758315</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26482,28 +26482,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535742</v>
+        <v>-237156.8575535739</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609703</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="D6" t="n">
         <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339665</v>
+        <v>-70494.47248339647</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639934996</v>
+        <v>454665.5639934997</v>
       </c>
       <c r="G6" t="n">
         <v>454665.5639934996</v>
@@ -26543,25 +26543,25 @@
         <v>454665.5639934996</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009065</v>
+        <v>278242.3448009066</v>
       </c>
       <c r="K6" t="n">
+        <v>454665.5639934997</v>
+      </c>
+      <c r="L6" t="n">
+        <v>454665.5639934997</v>
+      </c>
+      <c r="M6" t="n">
+        <v>319864.5487596625</v>
+      </c>
+      <c r="N6" t="n">
         <v>454665.5639934998</v>
       </c>
-      <c r="L6" t="n">
-        <v>454665.5639935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>319864.5487596621</v>
-      </c>
-      <c r="N6" t="n">
-        <v>454665.5639934996</v>
-      </c>
       <c r="O6" t="n">
-        <v>454665.5639934995</v>
+        <v>454665.5639934998</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934996</v>
+        <v>454665.5639934998</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>289.9451112355738</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>12.1320619406256</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>123.3106349274899</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>275.5462581231695</v>
+        <v>115.6837428662065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>252.5025126573479</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62479347841042</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>231.771766537683</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>58.58971553211445</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>134.0604757463539</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.430470805042811e-12</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638415</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>168.5622361295452</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,31 +32081,31 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>49.68672516641908</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>383.0062604371802</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>13.56520185742693</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32549,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>17.29163000389678</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>408.5315900543043</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32573,13 +32573,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,25 +32786,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>239.2136969488962</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>202.8845144922158</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,25 +33172,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>144.2740676092155</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>128.5063634900091</v>
+        <v>448.9930752257595</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,25 +33734,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>161.9478778664918</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>396.5537155454427</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,16 +33992,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,28 +34217,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>91.39392586558546</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>285.0631269188133</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>442.7621507817987</v>
       </c>
       <c r="O45" t="n">
-        <v>292.9736058552093</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918231</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>74.9710339412367</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>419.8283109618303</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>373.2577549944007</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>634.2723352694653</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>481.8349496237099</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>264.831276689712</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>340.8626598318784</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>107.8719848655629</v>
       </c>
       <c r="O24" t="n">
-        <v>397.7844342456289</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>413.9998898205658</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>550.885176752436</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>467.8450974371971</v>
       </c>
       <c r="N30" t="n">
-        <v>606.4387873026475</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>452.0773933179907</v>
+        <v>772.5641050537411</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
@@ -37169,7 +37169,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>644.8988754559225</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>27.97347045216156</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>421.2822343698784</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>439.3945881258057</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>151.0887195044831</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>311.4204386984654</v>
       </c>
       <c r="O45" t="n">
-        <v>150.3773614107648</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492991.175771829</v>
+        <v>2485974.160880119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1503424.885373907</v>
+        <v>619525.0825645821</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.3407393867366</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>92.10426284046073</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>100.9623642021449</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>338.2584895448977</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.7835007017901</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>125.8056357146094</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>78.70047021735067</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853694</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491423</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113147</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>149.4433890341031</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>191.295289216368</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>6.900170146390965</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.9379250486625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>216.1493758403566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>174.2106622993762</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.0409689064682</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>275.92378144968</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.60941330431319</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,10 +3243,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.88171928086751</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>174.4326371830326</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>81.21003188889082</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.654191907094</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="C2" t="n">
-        <v>1739.654191907094</v>
+        <v>665.6547661109871</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>307.3890675042366</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>307.3890675042366</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>300.4435667550331</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907094</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907094</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.654191907094</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4406,19 +4406,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,13 +4430,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
         <v>864.6405432696254</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2595.16690495545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2341.405119593541</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.34223224997</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2010.34223224997</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.34223224997</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4658,19 +4658,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.0273259635867</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>184.0273259635867</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>184.0273259635867</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2091.914583926165</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1722.952066985753</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990287</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990287</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990287</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990287</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990287</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2478.514423990287</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572651</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782198</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782198</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>484.4236418782198</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>484.4236418782198</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>484.4236418782198</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4238416165522</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782198</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080544</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>264.0657286834808</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>494.0288345518299</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826484</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426789</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119727</v>
+        <v>1347.963352341637</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119727</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.613602254709</v>
+        <v>803.861694098789</v>
       </c>
       <c r="X13" t="n">
-        <v>966.6240513566914</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.673198189896</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>441.2984649031105</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>272.3622819752036</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>622.9469297333502</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2386.862770609477</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2591.885251391686</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1310.090083640061</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1310.090083640061</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1020.96144485362</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.96144485362</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>731.5442748166591</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>1002.792923427374</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M21" t="n">
-        <v>1771.161069819836</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.2225136306376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1080.663557604408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1080.663557604408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1080.663557604408</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>859.8709784608774</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>103.2823543233163</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>514.172623167829</v>
       </c>
       <c r="L24" t="n">
-        <v>493.5013994809973</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="M24" t="n">
-        <v>1261.869545873459</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1322.945904598937</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1322.945904598937</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1322.945904598937</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.945904598937</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>1033.528734561976</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>805.539183663959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.888341328817</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>410.888341328817</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>410.888341328817</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570741</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570741</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>592.5368061590567</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>592.5368061590567</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>796.4999549097488</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>796.4999549097488</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>507.0827848727882</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
-        <v>2107.32270539078</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.862770609477</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>674.7185717878253</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>446.729020889808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.729020889808</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1942790685366</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N36" t="n">
-        <v>1283.714934706155</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3651.878169319104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3651.878169319104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3651.878169319104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3651.878169319104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3651.878169319104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3651.878169319104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3501.460160867047</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227851</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4571.725934227851</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4282.308764190891</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4054.319213292873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3833.526634149343</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,31 +7241,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O39" t="n">
         <v>1808.163466324677</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7444,13 +7444,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>479.0983322613956</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7578,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488389</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>3269.187507643265</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N45" t="n">
-        <v>4045.444533962831</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>4045.444533962831</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>366.0379500363506</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>137.947628233053</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N45" t="n">
-        <v>450.9034329853872</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>136.7939633644743</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>95.22770912022304</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>141.7153028718214</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>10.98288493494076</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>35.98826748347136</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>23.71014768422702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>2.392993740101019</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.31357094889739</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.2225668776241</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>68.53752618340445</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>112.0903611535584</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>170.9276114349372</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491888</v>
       </c>
     </row>
     <row r="9">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
@@ -26343,16 +26343,16 @@
         <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327917</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768952</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758152</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758011</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535742</v>
+        <v>-237156.8575535739</v>
       </c>
       <c r="C6" t="n">
         <v>352811.0216609704</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609698</v>
+        <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.47248339558</v>
+        <v>-71469.06374311785</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639934991</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639935</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009065</v>
+        <v>277267.7535411849</v>
       </c>
       <c r="K6" t="n">
-        <v>454665.5639934994</v>
+        <v>453690.9727337778</v>
       </c>
       <c r="L6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337779</v>
       </c>
       <c r="M6" t="n">
-        <v>319864.5487596624</v>
+        <v>318889.9574999408</v>
       </c>
       <c r="N6" t="n">
-        <v>454665.5639934996</v>
+        <v>453690.9727337781</v>
       </c>
       <c r="O6" t="n">
-        <v>454665.5639934997</v>
+        <v>453690.9727337778</v>
       </c>
       <c r="P6" t="n">
-        <v>454665.5639934992</v>
+        <v>453690.9727337776</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370128</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990166</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990166</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.3423022339464</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>321.6799071803342</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>6.771212764859825</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.9453835684544</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>115.4859561555129</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>10.9824791725153</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.6504619447791</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>116.1240855196268</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>228.8774059060735</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748116</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>77.47041862444445</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31141,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396486</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392604</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813583</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>84.13734909203708</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>221.6208102234704</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,22 +32086,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>396.5537155454427</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>144.9553016898114</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,28 +32323,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.9901114440537</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>7.172050210143709</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>6.873119470733092</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>408.5315900543038</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>396.5537155454422</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,40 +33414,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961179</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,34 +33496,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>285.0631269188128</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,10 +33733,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33748,19 +33748,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>267.7425307447071</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>331.8073893088562</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,34 +34444,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.017335757707</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262111</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>407.7083789200187</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178375</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>406.1091714490773</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>215.050815339639</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.0083373580322</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>355.1727124703639</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>6.126528144475236</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>699.2325234343635</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N27" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734238</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>151.0887195044826</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>519.0086055769922</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.2053331890774</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>193.253009528982</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N45" t="n">
-        <v>784.0980063834002</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2485974.160880119</v>
+        <v>2490913.42372915</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619525.0825645821</v>
+        <v>585553.4734360137</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>92.10426284046073</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>122.7769566578277</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>29.7324739988279</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>338.2584895448977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>149.4433890341031</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056479</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>6.900170146390965</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>143.0053956628067</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.9955446623091</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385031</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185879</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>29.18937547121089</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>174.4326371830326</v>
+        <v>232.6344206187316</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1034.617283051399</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C2" t="n">
-        <v>665.6547661109871</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3890675042366</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3890675042366</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4435667550331</v>
+        <v>519.0782337829704</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>505.1548297215613</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>177.9601097575642</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>494.9616886289901</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>83.97578383938253</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4603,16 +4603,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,19 +4658,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="N12" t="n">
-        <v>1926.416008325838</v>
+        <v>2092.7372104782</v>
       </c>
       <c r="O12" t="n">
-        <v>1926.416008325838</v>
+        <v>2092.7372104782</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5208,43 +5208,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U13" t="n">
-        <v>1347.963352341637</v>
+        <v>786.082206476515</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.27886413575</v>
+        <v>531.3977182706282</v>
       </c>
       <c r="W13" t="n">
-        <v>803.861694098789</v>
+        <v>241.9805482336675</v>
       </c>
       <c r="X13" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N15" t="n">
-        <v>1890.372576454149</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O15" t="n">
-        <v>1890.372576454149</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.673198189896</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.2984649031105</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>272.3622819752036</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768803</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X16" t="n">
-        <v>843.7395088768803</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>622.9469297333502</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5603,7 +5603,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>217.4146113212042</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,10 +5776,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171746</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5949,13 +5949,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6171,22 +6171,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,34 +6241,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N27" t="n">
         <v>1138.699705022018</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,22 +6454,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M30" t="n">
         <v>334.288126757867</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,10 +6712,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6894,10 +6894,10 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,13 +6961,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1332.890986794851</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0280401273993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>667.8334571142351</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8334571142351</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O42" t="n">
         <v>1808.163466324677</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7654,7 +7654,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>370.8623401849284</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>136.7939633644743</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338923</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>141.7153028718214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>143.5176026737843</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>29.91828370522698</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>189.3952778808839</v>
       </c>
     </row>
     <row r="32">
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>87.77261239840709</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,13 +25605,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>112.0903611535584</v>
+        <v>53.88857771785936</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821161.0254491889</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491887</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
@@ -26343,19 +26343,19 @@
         <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758152</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535739</v>
+        <v>-237156.8575535742</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609704</v>
+        <v>352811.0216609706</v>
       </c>
       <c r="D6" t="n">
-        <v>352811.0216609701</v>
+        <v>352811.0216609703</v>
       </c>
       <c r="E6" t="n">
-        <v>-71469.06374311785</v>
+        <v>-70591.93160936823</v>
       </c>
       <c r="F6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="G6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="H6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675276</v>
       </c>
       <c r="I6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="J6" t="n">
-        <v>277267.7535411849</v>
+        <v>278144.8856749345</v>
       </c>
       <c r="K6" t="n">
-        <v>453690.9727337778</v>
+        <v>454568.1048675273</v>
       </c>
       <c r="L6" t="n">
-        <v>453690.9727337779</v>
+        <v>454568.1048675272</v>
       </c>
       <c r="M6" t="n">
-        <v>318889.9574999408</v>
+        <v>319767.0896336905</v>
       </c>
       <c r="N6" t="n">
-        <v>453690.9727337781</v>
+        <v>454568.1048675274</v>
       </c>
       <c r="O6" t="n">
-        <v>453690.9727337778</v>
+        <v>454568.1048675274</v>
       </c>
       <c r="P6" t="n">
-        <v>453690.9727337776</v>
+        <v>454568.1048675273</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>321.6799071803342</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29.15435958703354</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>6.771212764859825</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>384.0516960219671</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27675,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>10.9824791725153</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>116.1240855196268</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31378,16 +31378,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>221.6208102234704</v>
+        <v>53.61959592815515</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>201.5176914958845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32098,16 +32098,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.9553016898114</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>399.4910404804381</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.84465193776663</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32733,7 +32733,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>380.4309478731435</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33204,10 +33204,10 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33523,7 +33523,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33675,13 +33675,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33760,7 +33760,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33997,7 +33997,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34152,7 +34152,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34225,7 +34225,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>340.85460907735</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34383,7 +34383,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>406.1091714490773</v>
+        <v>238.1079571537621</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789687</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,7 +35734,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>215.050815339639</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>723.0620703084197</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>343.1107267700517</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>728.4316101333637</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415665</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>592.1206839096351</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -38022,7 +38022,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38031,7 +38031,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
